--- a/Results/Заклади з таблиці летальностей, які мають звітувати в Meddata.xlsx
+++ b/Results/Заклади з таблиці летальностей, які мають звітувати в Meddata.xlsx
@@ -7,28 +7,28 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Волинська область" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Вінницька область" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Дніпропетровська область" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Донецька область" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Житомирська область" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Закарпатська область" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Запорізька область" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Київська область" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Кіровоградська область" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Львівська область" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Миколаївська область" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Одеська область" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Полтавська область" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Рівненська область" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Сумська область" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Тернопільська область" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Харківська область" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Херсонська область" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Хмельницька область" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Черкаська область" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Чернівецька область" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Чернігівська область" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Волинська" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Вінницька" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Дніпропетровська" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Донецька" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Житомирська" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Закарпатська" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Запорізька" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Київська" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Кіровоградська" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Львівська" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Миколаївська" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Одеська" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Полтавська" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Рівненська" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Сумська" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Тернопільська" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Харківська" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Херсонська" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Хмельницька" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Черкаська" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Чернівецька" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Чернігівська" sheetId="22" state="visible" r:id="rId22"/>
     <sheet name="м. Київ" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
@@ -480,7 +480,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -500,7 +500,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -520,7 +520,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -540,7 +540,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -560,7 +560,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -580,7 +580,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -600,7 +600,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -620,7 +620,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -640,7 +640,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -660,7 +660,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -680,7 +680,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -700,7 +700,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -720,7 +720,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -740,7 +740,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -760,7 +760,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -780,7 +780,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -800,7 +800,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -820,7 +820,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -840,7 +840,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -860,7 +860,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -880,7 +880,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -900,7 +900,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -920,7 +920,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -940,7 +940,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>Волинська</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1001,7 +1001,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Львівська область</t>
+          <t>Львівська</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1021,7 +1021,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Львівська область</t>
+          <t>Львівська</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1041,7 +1041,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Львівська область</t>
+          <t>Львівська</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1061,7 +1061,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Львівська область</t>
+          <t>Львівська</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1081,7 +1081,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Львівська область</t>
+          <t>Львівська</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1101,7 +1101,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Львівська область</t>
+          <t>Львівська</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1121,7 +1121,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Львівська область</t>
+          <t>Львівська</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1141,7 +1141,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Львівська область</t>
+          <t>Львівська</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1161,7 +1161,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Львівська область</t>
+          <t>Львівська</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1222,7 +1222,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1242,7 +1242,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1262,7 +1262,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1282,7 +1282,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1302,7 +1302,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1322,7 +1322,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1342,7 +1342,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1362,7 +1362,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1382,7 +1382,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1402,7 +1402,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1422,7 +1422,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1442,7 +1442,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1462,7 +1462,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1482,7 +1482,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1502,7 +1502,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1522,7 +1522,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1542,7 +1542,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1562,7 +1562,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1582,7 +1582,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1602,7 +1602,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1622,7 +1622,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1642,7 +1642,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1662,7 +1662,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1682,7 +1682,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Миколаївська</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1743,7 +1743,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1763,7 +1763,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1783,7 +1783,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1803,7 +1803,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1823,7 +1823,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1843,7 +1843,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1863,7 +1863,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1883,7 +1883,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1903,7 +1903,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1923,7 +1923,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1943,7 +1943,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1963,7 +1963,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1983,7 +1983,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2003,7 +2003,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2023,7 +2023,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2043,7 +2043,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2063,7 +2063,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2083,7 +2083,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2103,7 +2103,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2123,7 +2123,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2143,7 +2143,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2163,7 +2163,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2183,7 +2183,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2203,7 +2203,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2223,7 +2223,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2243,7 +2243,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2263,7 +2263,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2283,7 +2283,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2303,7 +2303,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2323,7 +2323,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2343,7 +2343,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2363,7 +2363,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2383,7 +2383,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2403,7 +2403,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2423,7 +2423,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2443,7 +2443,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2463,7 +2463,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2483,7 +2483,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2503,7 +2503,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2523,7 +2523,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2543,7 +2543,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2563,7 +2563,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2583,7 +2583,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2603,7 +2603,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2623,7 +2623,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2643,7 +2643,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Одеська</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2704,7 +2704,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2724,7 +2724,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2744,7 +2744,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2764,7 +2764,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2784,7 +2784,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2804,7 +2804,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2824,7 +2824,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2844,7 +2844,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2864,7 +2864,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2884,7 +2884,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2904,7 +2904,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2924,7 +2924,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2944,7 +2944,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2964,7 +2964,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2984,7 +2984,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -3004,7 +3004,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3024,7 +3024,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3044,7 +3044,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -3064,7 +3064,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3084,7 +3084,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -3104,7 +3104,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -3124,7 +3124,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -3144,7 +3144,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -3164,7 +3164,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -3184,7 +3184,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -3204,7 +3204,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -3224,7 +3224,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -3244,7 +3244,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -3264,7 +3264,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -3284,7 +3284,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -3304,7 +3304,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -3324,7 +3324,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -3344,7 +3344,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -3364,7 +3364,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -3384,7 +3384,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -3404,7 +3404,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3424,7 +3424,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3444,7 +3444,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3464,7 +3464,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3484,7 +3484,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Полтавська область</t>
+          <t>Полтавська</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3545,7 +3545,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3565,7 +3565,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3585,7 +3585,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3605,7 +3605,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3625,7 +3625,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3645,7 +3645,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3665,7 +3665,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3685,7 +3685,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3705,7 +3705,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3725,7 +3725,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3745,7 +3745,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -3765,7 +3765,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -3785,7 +3785,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -3805,7 +3805,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3825,7 +3825,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -3845,7 +3845,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3865,7 +3865,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3885,7 +3885,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -3905,7 +3905,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3925,7 +3925,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -3945,7 +3945,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -3965,7 +3965,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Рівненська область</t>
+          <t>Рівненська</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -4026,7 +4026,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Сумська область</t>
+          <t>Сумська</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -4046,7 +4046,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Сумська область</t>
+          <t>Сумська</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -4066,7 +4066,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Сумська область</t>
+          <t>Сумська</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -4086,7 +4086,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Сумська область</t>
+          <t>Сумська</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -4106,7 +4106,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Сумська область</t>
+          <t>Сумська</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4126,7 +4126,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Сумська область</t>
+          <t>Сумська</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4146,7 +4146,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Сумська область</t>
+          <t>Сумська</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -4166,7 +4166,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Сумська область</t>
+          <t>Сумська</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -4186,7 +4186,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Сумська область</t>
+          <t>Сумська</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -4206,7 +4206,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Сумська область</t>
+          <t>Сумська</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -4226,7 +4226,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Сумська область</t>
+          <t>Сумська</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4246,7 +4246,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Сумська область</t>
+          <t>Сумська</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -4266,7 +4266,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Сумська область</t>
+          <t>Сумська</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -4286,7 +4286,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Сумська область</t>
+          <t>Сумська</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -4306,7 +4306,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Сумська область</t>
+          <t>Сумська</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -4326,7 +4326,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Сумська область</t>
+          <t>Сумська</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4346,7 +4346,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Сумська область</t>
+          <t>Сумська</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -4366,7 +4366,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Сумська область</t>
+          <t>Сумська</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -4386,7 +4386,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Сумська область</t>
+          <t>Сумська</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -4406,7 +4406,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Сумська область</t>
+          <t>Сумська</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -4426,7 +4426,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Сумська область</t>
+          <t>Сумська</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4487,7 +4487,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Тернопільська область</t>
+          <t>Тернопільська</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -4507,7 +4507,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Тернопільська область</t>
+          <t>Тернопільська</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -4527,7 +4527,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Тернопільська область</t>
+          <t>Тернопільська</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -4547,7 +4547,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Тернопільська область</t>
+          <t>Тернопільська</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -4567,7 +4567,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Тернопільська область</t>
+          <t>Тернопільська</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4587,7 +4587,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Тернопільська область</t>
+          <t>Тернопільська</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4607,7 +4607,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Тернопільська область</t>
+          <t>Тернопільська</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -4627,7 +4627,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Тернопільська область</t>
+          <t>Тернопільська</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -4647,7 +4647,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Тернопільська область</t>
+          <t>Тернопільська</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -4667,7 +4667,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Тернопільська область</t>
+          <t>Тернопільська</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -4687,7 +4687,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Тернопільська область</t>
+          <t>Тернопільська</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4707,7 +4707,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Тернопільська область</t>
+          <t>Тернопільська</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -4727,7 +4727,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Тернопільська область</t>
+          <t>Тернопільська</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -4747,7 +4747,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Тернопільська область</t>
+          <t>Тернопільська</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -4767,7 +4767,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Тернопільська область</t>
+          <t>Тернопільська</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -4787,7 +4787,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Тернопільська область</t>
+          <t>Тернопільська</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4807,7 +4807,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Тернопільська область</t>
+          <t>Тернопільська</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -4827,7 +4827,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Тернопільська область</t>
+          <t>Тернопільська</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -4847,7 +4847,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Тернопільська область</t>
+          <t>Тернопільська</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -4908,7 +4908,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -4928,7 +4928,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -4948,7 +4948,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -4968,7 +4968,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -4988,7 +4988,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5008,7 +5008,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -5028,7 +5028,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -5048,7 +5048,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -5068,7 +5068,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -5088,7 +5088,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -5108,7 +5108,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -5128,7 +5128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -5148,7 +5148,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -5168,7 +5168,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -5188,7 +5188,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -5208,7 +5208,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -5228,7 +5228,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -5248,7 +5248,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -5268,7 +5268,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -5288,7 +5288,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -5308,7 +5308,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -5328,7 +5328,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -5348,7 +5348,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -5368,7 +5368,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -5388,7 +5388,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -5408,7 +5408,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -5428,7 +5428,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -5448,7 +5448,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -5468,7 +5468,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -5488,7 +5488,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -5508,7 +5508,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -5528,7 +5528,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -5548,7 +5548,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -5568,7 +5568,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -5588,7 +5588,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -5608,7 +5608,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -5628,7 +5628,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -5648,7 +5648,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -5668,7 +5668,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -5688,7 +5688,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -5708,7 +5708,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -5728,7 +5728,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -5748,7 +5748,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -5768,7 +5768,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -5788,7 +5788,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -5808,7 +5808,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -5828,7 +5828,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Харківська область</t>
+          <t>Харківська</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -5889,7 +5889,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Херсонська область</t>
+          <t>Херсонська</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5909,7 +5909,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Херсонська область</t>
+          <t>Херсонська</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5929,7 +5929,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Херсонська область</t>
+          <t>Херсонська</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -5949,7 +5949,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Херсонська область</t>
+          <t>Херсонська</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5969,7 +5969,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Херсонська область</t>
+          <t>Херсонська</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5989,7 +5989,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Херсонська область</t>
+          <t>Херсонська</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -6009,7 +6009,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Херсонська область</t>
+          <t>Херсонська</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -6029,7 +6029,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Херсонська область</t>
+          <t>Херсонська</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -6090,7 +6090,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6110,7 +6110,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6130,7 +6130,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -6150,7 +6150,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -6170,7 +6170,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -6190,7 +6190,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -6210,7 +6210,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -6230,7 +6230,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -6250,7 +6250,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -6270,7 +6270,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -6290,7 +6290,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -6310,7 +6310,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -6330,7 +6330,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -6350,7 +6350,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -6370,7 +6370,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -6390,7 +6390,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -6410,7 +6410,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -6430,7 +6430,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -6450,7 +6450,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -6470,7 +6470,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -6490,7 +6490,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -6510,7 +6510,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -6530,7 +6530,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -6550,7 +6550,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -6570,7 +6570,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -6590,7 +6590,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -6610,7 +6610,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -6630,7 +6630,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -6650,7 +6650,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -6670,7 +6670,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -6690,7 +6690,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -6710,7 +6710,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -6730,7 +6730,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -6750,7 +6750,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -6770,7 +6770,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -6790,7 +6790,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -6810,7 +6810,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -6830,7 +6830,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -6850,7 +6850,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -6870,7 +6870,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -6890,7 +6890,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -6910,7 +6910,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -6930,7 +6930,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -6950,7 +6950,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -6970,7 +6970,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -6990,7 +6990,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -7010,7 +7010,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -7030,7 +7030,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -7050,7 +7050,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -7070,7 +7070,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -7090,7 +7090,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -7110,7 +7110,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -7130,7 +7130,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -7150,7 +7150,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -7170,7 +7170,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -7190,7 +7190,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -7210,7 +7210,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -7230,7 +7230,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -7250,7 +7250,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Хмельницька область</t>
+          <t>Хмельницька</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -7311,7 +7311,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -7331,7 +7331,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -7351,7 +7351,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -7371,7 +7371,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -7391,7 +7391,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -7411,7 +7411,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -7431,7 +7431,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -7451,7 +7451,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -7471,7 +7471,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -7491,7 +7491,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -7511,7 +7511,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -7531,7 +7531,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -7551,7 +7551,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -7571,7 +7571,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -7591,7 +7591,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -7611,7 +7611,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -7631,7 +7631,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -7651,7 +7651,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -7671,7 +7671,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -7691,7 +7691,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -7711,7 +7711,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -7731,7 +7731,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -7751,7 +7751,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>Вінницька</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -7812,7 +7812,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -7832,7 +7832,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -7852,7 +7852,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -7872,7 +7872,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -7892,7 +7892,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -7912,7 +7912,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -7932,7 +7932,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -7952,7 +7952,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -7972,7 +7972,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -7992,7 +7992,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -8012,7 +8012,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -8032,7 +8032,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -8052,7 +8052,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -8072,7 +8072,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -8092,7 +8092,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -8112,7 +8112,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -8132,7 +8132,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -8152,7 +8152,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -8172,7 +8172,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -8192,7 +8192,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -8212,7 +8212,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -8232,7 +8232,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -8252,7 +8252,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -8272,7 +8272,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -8292,7 +8292,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -8312,7 +8312,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Черкаська область</t>
+          <t>Черкаська</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -8373,7 +8373,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Чернівецька область</t>
+          <t>Чернівецька</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -8393,7 +8393,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Чернівецька область</t>
+          <t>Чернівецька</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -8413,7 +8413,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Чернівецька область</t>
+          <t>Чернівецька</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -8433,7 +8433,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Чернівецька область</t>
+          <t>Чернівецька</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -8453,7 +8453,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Чернівецька область</t>
+          <t>Чернівецька</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -8473,7 +8473,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Чернівецька область</t>
+          <t>Чернівецька</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -8493,7 +8493,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Чернівецька область</t>
+          <t>Чернівецька</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -8513,7 +8513,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Чернівецька область</t>
+          <t>Чернівецька</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -8533,7 +8533,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Чернівецька область</t>
+          <t>Чернівецька</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -8553,7 +8553,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Чернівецька область</t>
+          <t>Чернівецька</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -8573,7 +8573,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Чернівецька область</t>
+          <t>Чернівецька</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -8593,7 +8593,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Чернівецька область</t>
+          <t>Чернівецька</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -8613,7 +8613,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Чернівецька область</t>
+          <t>Чернівецька</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -8674,7 +8674,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -8694,7 +8694,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -8714,7 +8714,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -8734,7 +8734,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -8754,7 +8754,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -8774,7 +8774,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -8794,7 +8794,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -8814,7 +8814,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -8834,7 +8834,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -8854,7 +8854,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -8874,7 +8874,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -8894,7 +8894,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -8914,7 +8914,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -8934,7 +8934,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -8954,7 +8954,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -8974,7 +8974,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -8994,7 +8994,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -9014,7 +9014,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -9034,7 +9034,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -9054,7 +9054,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -9074,7 +9074,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -9094,7 +9094,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -9114,7 +9114,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -9134,7 +9134,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -9154,7 +9154,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -9174,7 +9174,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -9194,7 +9194,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -9214,7 +9214,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -9234,7 +9234,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Чернігівська область</t>
+          <t>Чернігівська</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -9956,7 +9956,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -9976,7 +9976,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -9996,7 +9996,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -10016,7 +10016,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -10036,7 +10036,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -10056,7 +10056,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -10076,7 +10076,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -10096,7 +10096,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -10116,7 +10116,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -10136,7 +10136,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -10156,7 +10156,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -10176,7 +10176,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -10196,7 +10196,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -10216,7 +10216,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -10236,7 +10236,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -10256,7 +10256,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -10276,7 +10276,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -10296,7 +10296,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -10316,7 +10316,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -10336,7 +10336,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -10356,7 +10356,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -10376,7 +10376,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -10396,7 +10396,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -10416,7 +10416,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -10436,7 +10436,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -10456,7 +10456,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -10476,7 +10476,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -10496,7 +10496,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -10516,7 +10516,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -10536,7 +10536,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -10556,7 +10556,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -10576,7 +10576,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -10596,7 +10596,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -10616,7 +10616,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -10636,7 +10636,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -10656,7 +10656,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -10676,7 +10676,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -10696,7 +10696,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -10716,7 +10716,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -10736,7 +10736,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -10756,7 +10756,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -10776,7 +10776,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -10796,7 +10796,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -10816,7 +10816,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -10836,7 +10836,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -10856,7 +10856,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -10876,7 +10876,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -10896,7 +10896,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -10916,7 +10916,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -10936,7 +10936,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -10956,7 +10956,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>Дніпропетровська</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -11017,7 +11017,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Донецька область</t>
+          <t>Донецька</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -11037,7 +11037,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Донецька область</t>
+          <t>Донецька</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -11057,7 +11057,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Донецька область</t>
+          <t>Донецька</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -11118,7 +11118,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -11138,7 +11138,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -11158,7 +11158,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -11178,7 +11178,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -11198,7 +11198,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -11218,7 +11218,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -11238,7 +11238,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -11258,7 +11258,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -11278,7 +11278,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -11298,7 +11298,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -11318,7 +11318,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -11338,7 +11338,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -11358,7 +11358,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -11378,7 +11378,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -11398,7 +11398,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -11418,7 +11418,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -11438,7 +11438,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -11458,7 +11458,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -11478,7 +11478,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -11498,7 +11498,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -11518,7 +11518,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -11538,7 +11538,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -11558,7 +11558,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -11578,7 +11578,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>Житомирська</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -11639,7 +11639,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Закарпатська область</t>
+          <t>Закарпатська</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -11659,7 +11659,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Закарпатська область</t>
+          <t>Закарпатська</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -11679,7 +11679,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Закарпатська область</t>
+          <t>Закарпатська</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -11699,7 +11699,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Закарпатська область</t>
+          <t>Закарпатська</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -11719,7 +11719,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Закарпатська область</t>
+          <t>Закарпатська</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -11739,7 +11739,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Закарпатська область</t>
+          <t>Закарпатська</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -11759,7 +11759,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Закарпатська область</t>
+          <t>Закарпатська</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -11779,7 +11779,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Закарпатська область</t>
+          <t>Закарпатська</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -11799,7 +11799,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Закарпатська область</t>
+          <t>Закарпатська</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -11819,7 +11819,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Закарпатська область</t>
+          <t>Закарпатська</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -11839,7 +11839,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Закарпатська область</t>
+          <t>Закарпатська</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -11859,7 +11859,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Закарпатська область</t>
+          <t>Закарпатська</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -11879,7 +11879,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Закарпатська область</t>
+          <t>Закарпатська</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -11899,7 +11899,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Закарпатська область</t>
+          <t>Закарпатська</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -11919,7 +11919,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Закарпатська область</t>
+          <t>Закарпатська</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -11939,7 +11939,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Закарпатська область</t>
+          <t>Закарпатська</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -11959,7 +11959,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Закарпатська область</t>
+          <t>Закарпатська</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -12020,7 +12020,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Запорізька область</t>
+          <t>Запорізька</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -12040,7 +12040,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Запорізька область</t>
+          <t>Запорізька</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -12060,7 +12060,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Запорізька область</t>
+          <t>Запорізька</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -12080,7 +12080,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Запорізька область</t>
+          <t>Запорізька</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -12100,7 +12100,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Запорізька область</t>
+          <t>Запорізька</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -12120,7 +12120,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Запорізька область</t>
+          <t>Запорізька</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -12140,7 +12140,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Запорізька область</t>
+          <t>Запорізька</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -12160,7 +12160,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Запорізька область</t>
+          <t>Запорізька</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -12180,7 +12180,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Запорізька область</t>
+          <t>Запорізька</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -12200,7 +12200,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Запорізька область</t>
+          <t>Запорізька</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -12220,7 +12220,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Запорізька область</t>
+          <t>Запорізька</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -12240,7 +12240,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Запорізька область</t>
+          <t>Запорізька</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -12260,7 +12260,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Запорізька область</t>
+          <t>Запорізька</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -12280,7 +12280,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Запорізька область</t>
+          <t>Запорізька</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -12300,7 +12300,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Запорізька область</t>
+          <t>Запорізька</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -12320,7 +12320,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Запорізька область</t>
+          <t>Запорізька</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -12340,7 +12340,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Запорізька область</t>
+          <t>Запорізька</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -12401,7 +12401,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -12421,7 +12421,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -12441,7 +12441,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -12461,7 +12461,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -12481,7 +12481,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -12501,7 +12501,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -12521,7 +12521,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -12541,7 +12541,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -12563,7 +12563,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -12583,7 +12583,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -12603,7 +12603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -12623,7 +12623,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -12643,7 +12643,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -12663,7 +12663,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -12683,7 +12683,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -12703,7 +12703,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -12723,7 +12723,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -12743,7 +12743,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -12763,7 +12763,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -12783,7 +12783,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -12803,7 +12803,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -12823,7 +12823,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -12843,7 +12843,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -12863,7 +12863,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -12883,7 +12883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -12903,7 +12903,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -12923,7 +12923,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -12943,7 +12943,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -12963,7 +12963,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -12983,7 +12983,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -13003,7 +13003,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -13023,7 +13023,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -13043,7 +13043,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -13063,7 +13063,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -13083,7 +13083,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -13103,7 +13103,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -13123,7 +13123,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -13143,7 +13143,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Київська</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -13204,7 +13204,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -13224,7 +13224,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -13244,7 +13244,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -13264,7 +13264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -13284,7 +13284,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -13304,7 +13304,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -13324,7 +13324,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -13344,7 +13344,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -13364,7 +13364,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -13384,7 +13384,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -13404,7 +13404,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -13424,7 +13424,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -13444,7 +13444,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -13464,7 +13464,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -13484,7 +13484,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -13504,7 +13504,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -13524,7 +13524,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -13544,7 +13544,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -13564,7 +13564,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -13584,7 +13584,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -13604,7 +13604,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -13624,7 +13624,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -13644,7 +13644,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -13664,7 +13664,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -13684,7 +13684,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -13704,7 +13704,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -13724,7 +13724,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -13744,7 +13744,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -13764,7 +13764,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>Кіровоградська</t>
         </is>
       </c>
       <c r="B30" t="n">
